--- a/final_result/单倍型与表型的关联分析结果 (genes).xlsx
+++ b/final_result/单倍型与表型的关联分析结果 (genes).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sosai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sosai\Desktop\毕业设计\data and document\单倍型分析结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E9AA54F-2E63-4E9B-8158-72BFEFA73304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0AFB2C-1551-4E78-AA89-5C8C534A9EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{4E9E94CA-AE91-4658-925B-84A60FBE49E7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>三年都有</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,7 +51,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单倍型与表型的关联分析结果 (genes)</t>
+    <t>单倍型与表型的关联分析结果 (genes) 三年数据 用了正态性检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单倍型与表型的关联分析结果 (genes) 三年数据 没用正态性检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单倍型与表型的关联分析结果 (genes) 新数据 没用正态性检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +100,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,12 +127,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -117,12 +145,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,29 +469,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E47C6A-03F5-4D1D-A2B9-32394EBF8477}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="15.58203125" customWidth="1"/>
+    <col min="1" max="5" width="15.58203125" customWidth="1"/>
+    <col min="6" max="6" width="34.75" customWidth="1"/>
+    <col min="7" max="13" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -472,10 +515,23 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -491,10 +547,21 @@
       <c r="E3" s="1">
         <v>1037</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+      <c r="H3" s="1">
+        <v>12515</v>
+      </c>
+      <c r="I3" s="1">
+        <v>13968</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11164</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -510,10 +577,9 @@
       <c r="E4" s="1">
         <v>86</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -529,10 +595,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -548,16 +613,104 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final_result/单倍型与表型的关联分析结果 (genes).xlsx
+++ b/final_result/单倍型与表型的关联分析结果 (genes).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sosai\Desktop\毕业设计\data and document\单倍型分析结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0AFB2C-1551-4E78-AA89-5C8C534A9EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9658DCC-C16E-4C2B-938A-B925AC9084F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{4E9E94CA-AE91-4658-925B-84A60FBE49E7}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -649,37 +649,69 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>6753</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5514</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7871</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2378</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>6472</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5236</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4948</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2062</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="1">
+        <v>2079</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1762</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1893</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="1">
+        <v>6430</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4031</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5359</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2027</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
